--- a/book_parts/data_processing/data/output.xlsx
+++ b/book_parts/data_processing/data/output.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.551318536028333</v>
+        <v>-0.7591542253968855</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>44576</v>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5082831651357597</v>
+        <v>-1.685706492001141</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>44577</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.427344984016267</v>
+        <v>0.2664996361254149</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>44578</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.8543678392738103</v>
+        <v>-1.480555385057235</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>44579</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.899461532278378</v>
+        <v>1.214167999754901</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>44580</v>

--- a/book_parts/data_processing/data/output.xlsx
+++ b/book_parts/data_processing/data/output.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.7591542253968855</v>
+        <v>-0.5109679203885669</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>44576</v>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1.685706492001141</v>
+        <v>-1.546605696416426</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>44577</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2664996361254149</v>
+        <v>0.5359614257915656</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>44578</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.480555385057235</v>
+        <v>0.6173360913434244</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>44579</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.214167999754901</v>
+        <v>-0.58604908792934</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>44580</v>
